--- a/daily_matches/job_matches_2026-02-20.xlsx
+++ b/daily_matches/job_matches_2026-02-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,70 +473,1330 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI Engineer (Sample)</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Google</t>
+          <t>Breeze Airways</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mountain View, CA</t>
+          <t>Salt Lake City, UT, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>22.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Python, TensorFlow</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, PyTorch, XGBoost, LightGBM, AWS SageMaker, MLflow, FastAPI, Docker</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://careers.google.com</t>
+          <t>https://www.indeed.com/viewjob?jk=d767420f2a9716f8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer (Sample)</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>ＡＮＧＥＬ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Seattle, WA</t>
+          <t>Provo, UT, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>14.4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PyTorch, AWS</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5h</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://amazon.jobs</t>
+          <t>https://www.indeed.com/viewjob?jk=823a1663055adb51</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Senior Software Development Engineer in Test (SDET)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ECP</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Milwaukee, WI, US USA</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6f996a8327315e55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Senior Software Development Engineer in Test (SDET)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=98807f643181f187</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Senior Software Development Engineer in Test (SDET)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Denver, CO, US USA</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a14f1745da350b3d</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sr Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adobe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ac7c6c0c346a932e</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Solution Architect</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Engineers &amp; Constructors International</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RAG, Data Lake, Kubernetes, CI/CD, Terraform, Git, Kafka, NoSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=73d1e56137c584a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Senior Full-Stack Software Engineer, Web Acquisition</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SoFi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, Git, Snowflake, PostgreSQL, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=359277f28851c6e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - Basking Ridge, NJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Basking Ridge, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RAG, Docker, CI/CD, Jenkins, Git, Kafka, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=dd998da946c33fa1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Senior Cloud Platform Engineer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Gemini, S3, EC2, Jenkins, Git, PostgreSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2f2b427895c42617</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Cloud Engineer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Gemini, S3, CI/CD, GitHub Actions, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7f9c7c38b976d2a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Data Engineer III</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dallas College</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Data Scientist, Copilot, Synapse, Dataflow, CI/CD, Power BI, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=04110df5faabcfe4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer, Lennar.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lennar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Irving, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Git, NoSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eb71e199e97397c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Palantir GenAI Software Engineer (Full Stack)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AIG</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Atlanta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, CI/CD, Terraform, NoSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=78356f387cc4ade5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a8d19f8507e3a736</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=15898b3b54c26de5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portland, OR, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=63fe706a16e8cc8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Washington, DC, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ee1bf89e4664819e</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Miami, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b68bcb4f6349f127</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sacramento, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1aa9b3852d0d02f7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5af1c9659046e6e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=969ef223b94fac5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b4198afb75c57326</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>San Diego, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=72e2b445076de91d</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Jacksonville, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1fbb3513083e45ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Atlanta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=29e54c91bf3bb986</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7bd2eb1d7c3e4527</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT, US USA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eeda9da30f708f65</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b3af76475c4c6219</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Denver, CO, US USA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=249b5da568dc438b</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ea1f1dc0b072e3b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=90e450af71abfe07</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ, US USA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a7c591a6e758b68e</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Software Engineer Intern</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RAG, PyTorch, OpenCV, Docker, Kubernetes, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=86551fb2ca368487</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Senior Microsoft Power Platform and Generative AI Developer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>True Tandem</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Washington, DC, US USA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Copilot, S3, Git, Python, R, Java, Optimization</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=db232f94be813087</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sr. Machine Learning Engineer, Adobe Firefly Services</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Adobe</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Generative AI, RAG, PyTorch, Kubernetes, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7d73949c9da5807e</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Software QA Tester</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ShipperHQ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RAG, Gemini, Copilot, Docker, CI/CD, Git, MySQL, SQL, R</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1d5f38225865774b</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Data Engineer II</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dallas College</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Data Scientist, Copilot, Synapse, Dataflow, Power BI, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=03c678b4a3e36747</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-20.xlsx
+++ b/daily_matches/job_matches_2026-02-20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer</t>
+          <t>Advanced AI Engineer (Generative AI)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ＡＮＧＥＬ</t>
+          <t>Honeywell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Provo, UT, US USA</t>
+          <t>Phoenix, AZ, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.4</v>
+        <v>22.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
+          <t>AI Engineer, Data Scientist, Generative AI, LangChain, LLaMA, Copilot, Prompt Engineering, TensorFlow, Keras, spaCy</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=823a1663055adb51</t>
+          <t>https://www.indeed.com/viewjob?jk=a32e71c90b7de7dd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Software Development Engineer in Test (SDET)</t>
+          <t>Intern - AI Engineering SLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECP</t>
+          <t>Veolia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Milwaukee, WI, US USA</t>
+          <t>Paramus, NJ, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14.4</v>
+        <v>22.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Copilot, Mistral, Hugging Face, ChromaDB, Prompt Engineering, MLflow</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,19 +571,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6f996a8327315e55</t>
+          <t>https://www.indeed.com/viewjob?jk=37bd83d543bfc24a</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Software Development Engineer in Test (SDET)</t>
+          <t>AI Finance - Senior - Technology Consulting - Location Open</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECP</t>
+          <t>EY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,11 +592,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14.4</v>
+        <v>21.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
+          <t>Data Scientist, LangChain, RAG, TensorFlow, PyTorch, OpenCV, Azure ML, Synapse, Data Lake, AKS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=98807f643181f187</t>
+          <t>https://www.indeed.com/viewjob?jk=16bfda7fc9b6a524</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Senior Software Development Engineer in Test (SDET)</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECP</t>
+          <t>Storable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Denver, CO, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.4</v>
+        <v>21.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
+          <t>RAG, S3, Glue, Athena, Redshift, Kinesis, Apache Airflow, CI/CD, Jenkins, GitHub Actions</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,67 +641,67 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a14f1745da350b3d</t>
+          <t>https://www.indeed.com/viewjob?jk=9fc414753b20eb42</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sr Machine Learning Engineer</t>
+          <t>Senior Associate - Data Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>New York Life</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.3</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R</t>
+          <t>Data Scientist, Generative AI, RAG, S3, Glue, Redshift, Data Lake, Git, Snowflake, Databricks</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ac7c6c0c346a932e</t>
+          <t>https://www.indeed.com/viewjob?jk=36d84b113f1f344f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Solution Architect</t>
+          <t>Software Engineer III - Machine Learning Platform</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Engineers &amp; Constructors International</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Houston, TX, US USA</t>
+          <t>Palo Alto, CA, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.3</v>
+        <v>18.9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, Data Lake, Kubernetes, CI/CD, Terraform, Git, Kafka, NoSQL, Python, SQL</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Terraform</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=73d1e56137c584a4</t>
+          <t>https://www.indeed.com/viewjob?jk=f0eec7b0f8281636</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Senior Full-Stack Software Engineer, Web Acquisition</t>
+          <t>Software Engineer II - Machine Learning Platform</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SoFi</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Palo Alto, CA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>18.9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, Git, Snowflake, PostgreSQL, MySQL, SQL, R, Java</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Terraform</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=359277f28851c6e0</t>
+          <t>https://www.indeed.com/viewjob?jk=3b06323be0aac0d5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Basking Ridge, NJ</t>
+          <t>Senion AI - FULL-STACK DEVELOPER</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Optum</t>
+          <t>The Squirrel Group</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Basking Ridge, NJ, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.3</v>
+        <v>18.9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RAG, Docker, CI/CD, Jenkins, Git, Kafka, MySQL, SQL, R, Java</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Pinecone, S3, EC2, FastAPI, Docker, CI/CD</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=dd998da946c33fa1</t>
+          <t>https://www.indeed.com/viewjob?jk=8353f6f74a781559</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senior Cloud Platform Engineer</t>
+          <t>Data Scientist- Applied AI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Capgemini</t>
+          <t>Kia America, Inc.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Irvine, CA, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.3</v>
+        <v>17.8</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Gemini, S3, EC2, Jenkins, Git, PostgreSQL, Python, SQL</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, Git, Databricks, PySpark, Hadoop, Tableau, Power BI</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,32 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2f2b427895c42617</t>
+          <t>https://www.indeed.com/viewjob?jk=a13c072e783a9c28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Cloud Engineer</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Capgemini</t>
+          <t>Darwill, Inc.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Oakbrook Terrace, IL, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.2</v>
+        <v>17.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Gemini, S3, CI/CD, GitHub Actions, Git, Python, R, Scala</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, XGBoost, LightGBM, MLflow, Docker, CI/CD, Databricks, PySpark</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,32 +851,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7f9c7c38b976d2a4</t>
+          <t>https://www.indeed.com/viewjob?jk=ba3140b12701cf34</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Data Engineer III</t>
+          <t>Intern - AI Engineering LLM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dallas College</t>
+          <t>Veolia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Paramus, NJ, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.2</v>
+        <v>17.8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Data Scientist, Copilot, Synapse, Dataflow, CI/CD, Power BI, Python, SQL, R, Scala</t>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Gemini, Copilot, Mistral, TensorFlow, PyTorch, FastAPI</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,32 +886,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=04110df5faabcfe4</t>
+          <t>https://www.indeed.com/viewjob?jk=5033e69b5d2d76d5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sr. Software Engineer, Lennar.com</t>
+          <t>Consultant, Analytic Scientist</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lennar</t>
+          <t>Nationwide Mutual Insurance Company</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Irving, TX, US USA</t>
+          <t>Scottsdale, AZ, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>17.8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Git, NoSQL, Python, SQL, R</t>
+          <t>Generative AI, RAG, LLaMA, Mistral, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=eb71e199e97397c4</t>
+          <t>https://www.indeed.com/viewjob?jk=170a2d1c042c811e</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Palantir GenAI Software Engineer (Full Stack)</t>
+          <t>Consultant, Analytic Scientist</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AIG</t>
+          <t>Nationwide Mutual Insurance Company</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11.1</v>
+        <v>17.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, CI/CD, Terraform, NoSQL, Python, SQL, R, Java, Scala</t>
+          <t>Generative AI, RAG, LLaMA, Mistral, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,137 +956,137 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=78356f387cc4ade5</t>
+          <t>https://www.indeed.com/viewjob?jk=ebacb989bd285111</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>AI-Powered Back End Developer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Arlington, VA, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Generative AI, RAG, Hugging Face, TensorFlow, PyTorch, BigQuery, Kubernetes, CI/CD, Jenkins, Terraform</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a8d19f8507e3a736</t>
+          <t>https://www.indeed.com/viewjob?jk=16acb1ba4b3faf98</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>AI-Powered Back End Developer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Generative AI, RAG, Hugging Face, TensorFlow, PyTorch, BigQuery, Kubernetes, CI/CD, Jenkins, Terraform</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=15898b3b54c26de5</t>
+          <t>https://www.indeed.com/viewjob?jk=6503750c8c5bdca0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>AI Adoption Data Specialist (mid-career)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Lockheed Martin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Portland, OR, US USA</t>
+          <t>Bethesda, MD, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Generative AI, RAG, Copilot, Docker, Kubernetes, Apache Airflow, CI/CD, Git, Kafka, PostgreSQL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=63fe706a16e8cc8a</t>
+          <t>https://www.indeed.com/viewjob?jk=0211cc478db702bd</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Consultant, Analytic Scientist</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Nationwide Mutual Insurance Company</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Washington, DC, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Generative AI, RAG, LLaMA, Mistral, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1096,32 +1096,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ee1bf89e4664819e</t>
+          <t>https://www.indeed.com/viewjob?jk=d6df3a07e2ff033e</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Consultant, Analytic Scientist</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Nationwide Mutual Insurance Company</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Miami, FL, US USA</t>
+          <t>Des Moines, IA, US USA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Generative AI, RAG, LLaMA, Mistral, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1131,277 +1131,277 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b68bcb4f6349f127</t>
+          <t>https://www.indeed.com/viewjob?jk=cdeca9a4359dcbd9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Junior Software Engineer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>MetLife</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sacramento, CA, US USA</t>
+          <t>Cary, NC, US USA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>LangChain, RAG, Copilot, Hugging Face, Prompt Engineering, TensorFlow, Docker, Kubernetes, CI/CD, Git</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1aa9b3852d0d02f7</t>
+          <t>https://www.indeed.com/viewjob?jk=f4bc362de25dc1c7</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Junior Software Engineer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>MetLife</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Cary, NC, US USA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>LangChain, RAG, Copilot, Hugging Face, Prompt Engineering, TensorFlow, Docker, Kubernetes, CI/CD, Git</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5af1c9659046e6e0</t>
+          <t>https://www.indeed.com/viewjob?jk=61795e8b4c6bd374</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Junior Software Engineer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>MetLife</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Cary, NC, US USA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>LangChain, RAG, Copilot, Hugging Face, Prompt Engineering, TensorFlow, Docker, Kubernetes, CI/CD, Git</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=969ef223b94fac5b</t>
+          <t>https://www.indeed.com/viewjob?jk=4387c130a5f162f6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Junior Software Engineer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>MetLife</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>Cary, NC, US USA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>17.8</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>LangChain, RAG, Copilot, Hugging Face, Prompt Engineering, TensorFlow, Docker, Kubernetes, CI/CD, Git</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b4198afb75c57326</t>
+          <t>https://www.indeed.com/viewjob?jk=ad2f0865c9b1aca2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Senior Backend Engineer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Meltwater</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>San Diego, CA, US USA</t>
+          <t>Las Vegas, NV, US USA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>16.7</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>RAG, Copilot, S3, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, MongoDB</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=72e2b445076de91d</t>
+          <t>https://www.indeed.com/viewjob?jk=a0cec3dfb04a086f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Senior Backend Engineer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Meltwater</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, US USA</t>
+          <t>Redwood City, CA, US USA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>16.7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>RAG, Copilot, S3, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, MongoDB</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1fbb3513083e45ca</t>
+          <t>https://www.indeed.com/viewjob?jk=dad972ad202e2e81</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Senior Backend Engineer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Meltwater</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Atlanta, GA, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>16.7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>RAG, Copilot, S3, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, MongoDB</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=29e54c91bf3bb986</t>
+          <t>https://www.indeed.com/viewjob?jk=9626985445d89a1c</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>AI/ML Engineer</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Axogen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Houston, TX, US USA</t>
+          <t>Tampa, FL, US USA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>15.6</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>AI Engineer, Generative AI, RAG, TensorFlow, PyTorch, Docker, Kubernetes, Git, Python, SQL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1411,32 +1411,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7bd2eb1d7c3e4527</t>
+          <t>https://www.indeed.com/viewjob?jk=64828ae688c59de2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, US USA</t>
+          <t>MA, US USA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>15.6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Data Scientist, Generative AI, RAG, BigQuery, Snowflake, BigQuery, PySpark, Tableau, Power BI, Python</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=eeda9da30f708f65</t>
+          <t>https://www.indeed.com/viewjob?jk=4585da8682b921b1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>AI Solutions Engineer, Post Sales Scale - W&amp;B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>CoreWeave</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1467,11 +1467,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>15.6</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>LangChain, RAG, TensorFlow, PyTorch, XGBoost, LightGBM, Keras, Docker, Kubernetes, Git</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1481,32 +1481,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b3af76475c4c6219</t>
+          <t>https://www.indeed.com/viewjob?jk=681f48ea8f0448b6</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>LLM/Machine Learning Engineering Summer Intern</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Skyworks Solutions</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Denver, CO, US USA</t>
+          <t>Irvine, CA, US USA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>15.6</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, Mistral, FAISS, Pinecone, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1516,32 +1516,32 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=249b5da568dc438b</t>
+          <t>https://www.indeed.com/viewjob?jk=aa66ef5f3123af2b</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>CORVA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>15.6</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Data Scientist, Generative AI, TensorFlow, PyTorch, AWS SageMaker, Docker, Kubernetes, CI/CD, Git, Python</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1551,67 +1551,67 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ea1f1dc0b072e3b7</t>
+          <t>https://www.indeed.com/viewjob?jk=a462d8aee4da19e3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Senior AI Software Engineer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Arrowstreet Capital LP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>15.6</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Generative AI, RAG, LLaMA, Hugging Face, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Terraform</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=90e450af71abfe07</t>
+          <t>https://www.indeed.com/viewjob?jk=fab6c45d862eb64f</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+          <t>Innodata Sr Language Data Scientist – Search Specialization</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Scribd</t>
+          <t>Innodata</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, US USA</t>
+          <t>Ridgefield Park, NJ, US USA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>15.6</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+          <t>Data Scientist, Generative AI, RAG, Hugging Face, spaCy, NLTK, Git, Matplotlib, Seaborn, Python</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1621,32 +1621,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a7c591a6e758b68e</t>
+          <t>https://www.indeed.com/viewjob?jk=c6be3ad57f1fafee</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>ＡＮＧＥＬ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Provo, UT, US USA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RAG, PyTorch, OpenCV, Docker, Kubernetes, Git, Python, R, Scala</t>
+          <t>RAG, S3, EC2, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1656,32 +1656,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=86551fb2ca368487</t>
+          <t>https://www.indeed.com/viewjob?jk=823a1663055adb51</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Senior Microsoft Power Platform and Generative AI Developer</t>
+          <t>Senior Software Development Engineer in Test (SDET)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>True Tandem</t>
+          <t>ECP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Washington, DC, US USA</t>
+          <t>Milwaukee, WI, US USA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Copilot, S3, Git, Python, R, Java, Optimization</t>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1691,32 +1691,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=db232f94be813087</t>
+          <t>https://www.indeed.com/viewjob?jk=6f996a8327315e55</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sr. Machine Learning Engineer, Adobe Firefly Services</t>
+          <t>Senior Software Development Engineer in Test (SDET)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Adobe</t>
+          <t>ECP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Seattle, WA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, Generative AI, RAG, PyTorch, Kubernetes, Python, R, Scala, Optimization</t>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1726,32 +1726,32 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7d73949c9da5807e</t>
+          <t>https://www.indeed.com/viewjob?jk=98807f643181f187</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Software QA Tester</t>
+          <t>Senior Software Development Engineer in Test (SDET)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ShipperHQ</t>
+          <t>ECP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Denver, CO, US USA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>14.4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>RAG, Gemini, Copilot, Docker, CI/CD, Git, MySQL, SQL, R</t>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, PostgreSQL, SQL</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1761,42 +1761,5222 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1d5f38225865774b</t>
+          <t>https://www.indeed.com/viewjob?jk=a14f1745da350b3d</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>AI Solutions Engineer, Post Sales- W&amp;B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CoreWeave</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>LangChain, RAG, Pinecone, TensorFlow, PyTorch, XGBoost, LightGBM, Keras, Docker, Kubernetes</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f06ce65155efd619</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Python Developer with OCR / Computer Vision</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Apollo Technology Solutions LLC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Middletown, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>RAG, PyTorch, FastAPI, Kubernetes, AKS, CI/CD, PostgreSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=65ed8e88718e2047</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Software Engineer Full Stack</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NTT DATA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MO, US USA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Git, PostgreSQL, MongoDB, NoSQL, SQL</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3324a6eac8825857</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Premier Nutrition Company</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Emeryville, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RAG, Cortex, Data Lake, AKS, CI/CD, Git, Snowflake, Tableau, Power BI, Python</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=81eb7d99af38ec58</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Software Engineer - Licensing Cloud Team</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Research Triangle Park, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>LangChain, RAG, Prompt Engineering, Kubernetes, Git, Snowflake, Kafka, MongoDB, Python, R</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2d1aa6d0267e9893</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sr Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Adobe</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ac7c6c0c346a932e</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Solution Architect</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Engineers &amp; Constructors International</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RAG, Data Lake, Kubernetes, CI/CD, Terraform, Git, Kafka, NoSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=73d1e56137c584a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Senior Full-Stack Software Engineer, Web Acquisition</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SoFi</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, Git, Snowflake, PostgreSQL, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=359277f28851c6e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - Basking Ridge, NJ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Basking Ridge, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RAG, Docker, CI/CD, Jenkins, Git, Kafka, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=dd998da946c33fa1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Senior Cloud Platform Engineer</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Gemini, S3, EC2, Jenkins, Git, PostgreSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2f2b427895c42617</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Senior Generative AI Developer</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Realign</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tampa, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a3eef264115eba68</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Senior Generative AI Developer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Realign</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Jersey City, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e3bc9c1e729913c8</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Senior Generative AI Developer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Realign</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Irving, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cbd82f39a369c535</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Senior Data Scientist, Risk</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Block</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>San Francisco Bay Area, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Prompt Engineering, BigQuery, Git, Snowflake, BigQuery, MySQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=02269ed337036fb5</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Founding Senior Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SentiLink</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>US USA</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, MLflow, Docker, Kubernetes, CI/CD, GitHub Actions, Git, PostgreSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b480c210788d0b19</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Senior Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Hologic</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>US USA</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Generative AI, TensorFlow, PyTorch, XGBoost, OpenCV, MLflow, CI/CD, Git, Python</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6edf2b4e1f85bfb6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Generative AI Engineer (contract)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Wells Fargo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Charlotte, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, LangChain, RAG, TensorFlow, PyTorch, NoSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4f8bcb7e599b2df3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Software Engineer III -MLOps</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>JPMorganChase</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6b6676e550b061b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Innodata Sr Language Data Scientist</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Innodata</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ridgefield Park, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, Hugging Face, spaCy, NLTK, Git, Matplotlib, Seaborn, Python</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7bd3d5c9515e2bf3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Senior AI Engineer</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services (TCS)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Des Moines, IA, US USA</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AI Engineer, RAG, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Git, Databricks, SQL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a71ab05047da43be</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Solution Architect - Agentic AI &amp; Data</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services (TCS)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, Hugging Face, Prompt Engineering, Data Lake, CI/CD, NoSQL, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=080694e59324aad6</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Azure Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Cincinnati, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, Kubernetes, AKS, CI/CD, Git, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fc244e19f61d9c3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Innodata – Language Data Scientist</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Innodata</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ridgefield Park, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, Hugging Face, spaCy, NLTK, Git, Matplotlib, Seaborn, Python</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=78a9d2938682be77</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Senior Cloud Engineer</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Capgemini</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Gemini, S3, CI/CD, GitHub Actions, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7f9c7c38b976d2a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Data Engineer III</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Dallas College</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Data Scientist, Copilot, Synapse, Dataflow, CI/CD, Power BI, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=04110df5faabcfe4</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer, Lennar.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Lennar</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Irving, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, CI/CD, GitHub Actions, Git, NoSQL, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eb71e199e97397c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Ford Motor Company</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Dearborn, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, BigQuery, Docker, CI/CD, Git, BigQuery, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=621e50c04f63ae49</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Senior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Albertsons</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Pleasanton, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>RAG, BigQuery, Git, Snowflake, BigQuery, Tableau, Power BI, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=afe6e07f460eeb6c</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Nashville, TN, US USA</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7797f90d2a170f6c</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN, US USA</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b7cd79ab1fb8b29f</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Albany, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c052d003bf192552</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b864c556aba96b17</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Jacksonville, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=11e393f0f299a7b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Buffalo, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=90786d738f08ab05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN, US USA</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=104298b5664646e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Fayetteville, AR, US USA</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7ad7c69afcf55ccc</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Denver, CO, US USA</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8ad37bbc9dc33362</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tampa, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8b5d486e0d6b0480</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK, US USA</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6c5a2f055a6d87d3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Las Vegas, NV, US USA</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7dfbce635c844cc6</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Toledo, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=98a8e35e0983059f</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Louisville, KY, US USA</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7b44ec99e86fa872</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Detroit, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e88139cef030061d</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Grand Rapids, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=69c850b91bf35af3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Spartanburg, SC, US USA</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=0cf3a113c24f7390</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Melville, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=fcd7edeb662e5a12</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Washington, DC, US USA</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=096a0d93e3319090</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Greensboro, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=030a670880a83752</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=552f6e48f317e0f8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Kansas City, MO, US USA</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=047f59a2835d9708</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=899e28a484c3abc4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Des Moines, IA, US USA</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=454f8c83c48972d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Irvine, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c32c8cae5ea3be5a</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Stamford, CT, US USA</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=10f6e6f61ebb4e10</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Fort Worth, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1697da49ebb60d41</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6f2d9417f1c5a4fe</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d8c56c27dcf4c55a</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Atlanta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3e7ef50c40eaa371</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Birmingham, AL, US USA</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f378cb0c61a28846</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tulsa, OK, US USA</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=65f087cf3a323580</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Little Rock, AR, US USA</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6ac41996642bc352</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Florham Park, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=9afeedc6984d9c1b</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Hartford, CT, US USA</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=823c119c16921216</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>New Orleans, LA, US USA</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f56e4cf77c6d3a4c</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Montpelier, VT, US USA</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ce08fee0bc37fe0e</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Miami, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6a77a62c91c56f54</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Portland, OR, US USA</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c02b1beed204f521</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Milwaukee, WI, US USA</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5f7cb7a8689f242a</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7d1e046ccf355d3b</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=161e744040efe307</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ, US USA</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3a6c05d8cfb0ddfa</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Raleigh, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d1e63b02b10983ec</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Charlotte, NC, US USA</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eaad3691cf25c175</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7b3a2dc1da39a760</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Baltimore, MD, US USA</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a13b52de67900749</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Sacramento, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c369a250257c481c</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Silicon Valley, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=52f2bee38dd0329b</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Cincinnati, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=977058879abca964</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT, US USA</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c5d82a06003a0135</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7396522c67938d85</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1ebfce0271472e6b</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Cleveland, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6f5c7c84efd3593a</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Columbia, SC, US USA</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eddbdc1fab26d868</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>St. Louis, MO, US USA</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=49a93cb1291ff793</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7c54dba39a00ac3b</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>San Antonio, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f35ad90b13f01ebe</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3919662b22c22afe</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rochester, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5329a911ccee25a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rosemont, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=98bd849f90ceea7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>San Diego, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=977be5c12b8d7cf4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Risk Modeling Services - AI - Experienced Associate</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>PwC</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Richmond, VA, US USA</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, Prompt Engineering, XGBoost, CI/CD, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4a6caa561668fcd5</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sr. Strategist, CRM Analytics and Insights</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>General Motors (GM)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Warren, MI, US USA</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Git, Snowflake, Databricks, Tableau, Power BI, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6e5d05ab8fc41430</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Software Engineer - Back End</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>RAG, FastAPI, Kubernetes, CI/CD, Git, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7f6a27c9eab6a049</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Palantir GenAI Software Engineer (Full Stack)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>AIG</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Atlanta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, CI/CD, Terraform, NoSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=78356f387cc4ade5</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Remote Sensing Data Scientist</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Cognizant Technology Solutions</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>MO, US USA</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, OpenCV, Git, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ec9adad760f3cdc9</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MLOps Engineer - Ai</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Evrecruit.io</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eea77cbabe97b93d</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Data Science Intern</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Bonterra Organic Estates</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Hopland, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>TensorFlow, PyTorch, Git, Tableau, Power BI, Matplotlib, Seaborn, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=74fc953700dd46e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Engineer</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Wipro</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Mountain View, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Generative AI, LangChain, RAG, LLaMA, BigQuery, Git, BigQuery, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=add31c79abc97f66</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Software Development Engineer III - GenAI</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>GM Financial</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Irving, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, LangChain, RAG, LLaMA, Git, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6623d72502313d17</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, Docker, Kubernetes, Git, R, Java, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=308efd7c2264d246</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Deloitte</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN, US USA</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, RAG, Docker, Kubernetes, Git, R, Java, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=152195a7dc2be0a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Sr. Devops Engineer AWS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>RAG, Kubernetes, CI/CD, Jenkins, Terraform, Git, Kafka, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c09b6eb1ef59955a</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Devops Engineer AWS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>RAG, Kubernetes, CI/CD, Jenkins, Terraform, Git, Kafka, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c3afa58a25c74804</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>07 - Engineer, Software</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Celestica</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>San Jose, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>AI Engineer, LangChain, RAG, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cd251df8d440bfa1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>LLMOps Engineer (The Keeper — Operations &amp; Quality Assurance)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Callagy Law</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Paramus, NJ, US USA</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>RAG, Prompt Engineering, CI/CD, Jenkins, GitHub Actions, Git, Python, R, Optimization, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b8bd35b77efce1fc</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Senior ML Software Engineer</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Lyft</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, LangChain, RAG, LLaMA, Mistral, Prompt Engineering, MLflow, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4074f3c7593dba12</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Senior ML Software Engineer</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Lyft</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, LangChain, RAG, LLaMA, Mistral, Prompt Engineering, MLflow, Python, R, Java</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5d99fe7cbcef0102</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Agentic AI FDE | USA | FTE Only</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>US USA</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>AI Engineer, Docker, Kubernetes, CI/CD, Terraform, Python, R, Java, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a599c138b53329f5</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Software Engineer III - PySpark/Python/SQL</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>JPMorganChase</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Databricks, PySpark, Kafka, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1b9c1e60852a6c53</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Java Middleware Engineer</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services (TCS)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Irving, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Copilot, S3, Docker, Git, Kafka, NoSQL, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a248fb82b07d445d</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Data Engineer - Finance Data Reporting &amp; Analytics</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Castleton Commodities International</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>10</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Redshift, CI/CD, Redshift, Tableau, Power BI, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ef19d015d15107d0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Business Automation Engineer</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PEAK6</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>10</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, CI/CD, Git, Python, SQL, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ccffa3284bb82856</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Database Reliability Engineer</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>WorkOS</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>10</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>RAG, AKS, Terraform, PostgreSQL, Python, SQL, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=209b29cd76cbb957</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>10</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a8d19f8507e3a736</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>10</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=15898b3b54c26de5</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Portland, OR, US USA</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>10</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=63fe706a16e8cc8a</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Washington, DC, US USA</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>10</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ee1bf89e4664819e</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Miami, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>10</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b68bcb4f6349f127</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sacramento, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>10</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1aa9b3852d0d02f7</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>10</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=5af1c9659046e6e0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>10</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=969ef223b94fac5b</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>10</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b4198afb75c57326</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>San Diego, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>10</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=72e2b445076de91d</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Jacksonville, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>10</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1fbb3513083e45ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Atlanta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>10</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=29e54c91bf3bb986</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>10</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7bd2eb1d7c3e4527</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT, US USA</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>10</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eeda9da30f708f65</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>10</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b3af76475c4c6219</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Denver, CO, US USA</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>10</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=249b5da568dc438b</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>10</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ea1f1dc0b072e3b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>10</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=90e450af71abfe07</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - FrontEnd (Signup &amp; Activation)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Scribd</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ, US USA</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>10</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>RAG, Terraform, Kafka, MySQL, SQL, R, Java, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a7c591a6e758b68e</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Software Engineer Intern</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>10</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>RAG, PyTorch, OpenCV, Docker, Kubernetes, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=86551fb2ca368487</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Senior Microsoft Power Platform and Generative AI Developer</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>True Tandem</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Washington, DC, US USA</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>10</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Copilot, S3, Git, Python, R, Java, Optimization</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=db232f94be813087</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sr. Machine Learning Engineer, Adobe Firefly Services</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Adobe</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>10</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, Generative AI, RAG, PyTorch, Kubernetes, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7d73949c9da5807e</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Software QA Tester</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ShipperHQ</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>10</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>RAG, Gemini, Copilot, Docker, CI/CD, Git, MySQL, SQL, R</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1d5f38225865774b</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
           <t>Data Engineer II</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Dallas College</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Dallas, TX, US USA</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D175" t="n">
         <v>10</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>Data Scientist, Copilot, Synapse, Dataflow, Power BI, Python, SQL, R, Scala</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>https://www.indeed.com/viewjob?jk=03c678b4a3e36747</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer, Analytics</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Discord</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>San Francisco Bay Area, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>10</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RAG, BigQuery, BigQuery, Tableau, Python, SQL, R, Scala, A/B Testing</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b519c05e239b4542</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Berkshire Hathaway Homestate Companies</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>San Francisco Bay Area, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Git, Databricks, Hadoop, Power BI, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b976616dd2c1d647</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Berkshire Hathaway Homestate Companies</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>San Diego, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>10</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Git, Databricks, Hadoop, Power BI, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=defc8b92b832f60b</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Fusion92</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Alpharetta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>10</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, XGBoost, Snowflake, Tableau, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=ff369c521de6f554</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Generative AI Intern</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Seagate Technology</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>US USA</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>10</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, RAG, TensorFlow, PyTorch, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=08502b292f97200b</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Sr. Developer - Gen AI Engineer</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Evrecruit.io</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Columbus, OH, US USA</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>10</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, Git, PostgreSQL, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d826675af02443a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Engineer, IT, AI Enablement</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Micron Technology</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Boise, ID, US USA</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>10</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, Generative AI, RAG, Git, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3dace1a8749cce0f</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>MLOps Engineer</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services (TCS)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Hartford, CT, US USA</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>10</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>PyTorch, S3, Docker, CI/CD, Snowflake, PySpark, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=afcb01bac518b058</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>General Motors (GM)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>10</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Copilot, Docker, Kubernetes, Python, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=9167fa529687cda3</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Senior, Software Engineer, Python Developer</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Arrowstreet Capital LP</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Boston, MA, US USA</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>10</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>RAG, LLaMA, S3, CI/CD, Terraform, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e9318c2756c310de</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Senior Infrastructure Engineer (DevOps / Production / AWS), Ferra</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>25Madison</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>RAG, S3, EC2, Docker, AKS, CI/CD, Terraform, R, Scala</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=b40589cae89a2833</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>KIZEN Technologies, Inc.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>10</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>RAG, Kubernetes, Kafka, PostgreSQL, Python, SQL, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=99bff0a6eecef39b</t>
         </is>
       </c>
     </row>
